--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -49,7 +49,7 @@
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-27</t>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>KOREA AEROSPACE</t>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>날짜</t>
   </si>
@@ -34,27 +34,42 @@
     <t>5일수익률</t>
   </si>
   <si>
-    <t>점수</t>
-  </si>
-  <si>
-    <t>3일확률</t>
-  </si>
-  <si>
-    <t>5일확률</t>
-  </si>
-  <si>
-    <t>10일확률</t>
+    <t>점수(룰)</t>
+  </si>
+  <si>
+    <t>3일상승확률(%)</t>
+  </si>
+  <si>
+    <t>5일상승확률(%)</t>
+  </si>
+  <si>
+    <t>10일상승확률(%)</t>
+  </si>
+  <si>
+    <t>최종점수</t>
+  </si>
+  <si>
+    <t>예측방식</t>
   </si>
   <si>
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-28</t>
+    <t>MACRO_SCORE</t>
+  </si>
+  <si>
+    <t>MACRO_SIGNAL</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
   </si>
   <si>
     <t>KOREA AEROSPACE</t>
   </si>
   <si>
+    <t>HYUNDAI ROTEM</t>
+  </si>
+  <si>
     <t>LIG Nex1</t>
   </si>
   <si>
@@ -64,12 +79,12 @@
     <t>HANWHA SYSTEMS</t>
   </si>
   <si>
-    <t>HYUNDAI ROTEM</t>
-  </si>
-  <si>
     <t>047810.KS</t>
   </si>
   <si>
+    <t>064350.KS</t>
+  </si>
+  <si>
     <t>079550.KS</t>
   </si>
   <si>
@@ -79,13 +94,16 @@
     <t>272210.KS</t>
   </si>
   <si>
-    <t>064350.KS</t>
-  </si>
-  <si>
-    <t>건드리지 말기</t>
-  </si>
-  <si>
-    <t>바닥권 → 분할매수 준비</t>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
+  </si>
+  <si>
+    <t>⛔ 관망하십시오.</t>
+  </si>
+  <si>
+    <t>🟢 완화적 (상승 우위)</t>
   </si>
 </sst>
 </file>
@@ -443,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,180 +501,237 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>108900</v>
       </c>
-      <c r="E2">
-        <v>67.3</v>
-      </c>
       <c r="F2">
-        <v>1.49</v>
+        <v>2.16</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2">
+        <v>65.8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
+      <c r="D3">
+        <v>175700</v>
+      </c>
+      <c r="F3">
+        <v>-3.88</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>66</v>
+      </c>
+      <c r="I3">
+        <v>63</v>
+      </c>
+      <c r="J3">
+        <v>76</v>
+      </c>
+      <c r="K3">
+        <v>53.8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
-        <v>389500</v>
-      </c>
-      <c r="E3">
-        <v>45.6</v>
-      </c>
-      <c r="F3">
-        <v>-6.48</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>46</v>
-      </c>
-      <c r="I3">
-        <v>53</v>
-      </c>
-      <c r="J3">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>863000</v>
-      </c>
-      <c r="E4">
-        <v>38.9</v>
+        <v>383000</v>
       </c>
       <c r="F4">
-        <v>-5.79</v>
+        <v>-4.73</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I4">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="J4">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>46350</v>
-      </c>
-      <c r="E5">
-        <v>24.9</v>
+        <v>852000</v>
       </c>
       <c r="F5">
-        <v>-8.220000000000001</v>
+        <v>-1.96</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>49.8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>179200</v>
-      </c>
-      <c r="E6">
-        <v>32.6</v>
+        <v>46200</v>
       </c>
       <c r="F6">
-        <v>-5.68</v>
+        <v>-4.94</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I6">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J6">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>49.8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -543,7 +543,7 @@
         <v>76</v>
       </c>
       <c r="K2">
-        <v>65.8</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -587,7 +587,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -631,7 +631,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -675,7 +675,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -719,7 +719,7 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -543,7 +543,7 @@
         <v>76</v>
       </c>
       <c r="K2">
-        <v>66</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -587,7 +587,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -631,7 +631,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>51.2</v>
+        <v>51.1</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -675,7 +675,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -719,7 +719,7 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -543,7 +543,7 @@
         <v>76</v>
       </c>
       <c r="K2">
-        <v>65.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -587,7 +587,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -631,7 +631,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>51.1</v>
+        <v>51.2</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -675,7 +675,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -719,7 +719,7 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -527,11 +527,14 @@
       <c r="D2">
         <v>108900</v>
       </c>
+      <c r="E2">
+        <v>62.8</v>
+      </c>
       <c r="F2">
         <v>2.16</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -543,7 +546,7 @@
         <v>76</v>
       </c>
       <c r="K2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -571,6 +574,9 @@
       <c r="D3">
         <v>175700</v>
       </c>
+      <c r="E3">
+        <v>17.8</v>
+      </c>
       <c r="F3">
         <v>-3.88</v>
       </c>
@@ -596,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -615,6 +621,9 @@
       <c r="D4">
         <v>383000</v>
       </c>
+      <c r="E4">
+        <v>36.1</v>
+      </c>
       <c r="F4">
         <v>-4.73</v>
       </c>
@@ -640,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -659,6 +668,9 @@
       <c r="D5">
         <v>852000</v>
       </c>
+      <c r="E5">
+        <v>26.4</v>
+      </c>
       <c r="F5">
         <v>-1.96</v>
       </c>
@@ -684,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -703,6 +715,9 @@
       <c r="D6">
         <v>46200</v>
       </c>
+      <c r="E6">
+        <v>20.8</v>
+      </c>
       <c r="F6">
         <v>-4.94</v>
       </c>
@@ -728,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-11-29</t>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>KOREA AEROSPACE</t>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -70,28 +70,28 @@
     <t>HYUNDAI ROTEM</t>
   </si>
   <si>
+    <t>HANWHA SYSTEMS</t>
+  </si>
+  <si>
     <t>LIG Nex1</t>
   </si>
   <si>
     <t>HANWHA AEROSPACE</t>
   </si>
   <si>
-    <t>HANWHA SYSTEMS</t>
-  </si>
-  <si>
     <t>047810.KS</t>
   </si>
   <si>
     <t>064350.KS</t>
   </si>
   <si>
+    <t>272210.KS</t>
+  </si>
+  <si>
     <t>079550.KS</t>
   </si>
   <si>
     <t>012450.KS</t>
-  </si>
-  <si>
-    <t>272210.KS</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -525,28 +525,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>108900</v>
+        <v>108300</v>
       </c>
       <c r="E2">
-        <v>62.8</v>
+        <v>60.8</v>
       </c>
       <c r="F2">
-        <v>2.16</v>
+        <v>4.23</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
+        <v>56</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+      <c r="J2">
         <v>63</v>
       </c>
-      <c r="I2">
-        <v>63</v>
-      </c>
-      <c r="J2">
-        <v>76</v>
-      </c>
       <c r="K2">
-        <v>69</v>
+        <v>67.8</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -572,28 +572,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>175700</v>
+        <v>169900</v>
       </c>
       <c r="E3">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>-3.88</v>
+        <v>-2.91</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
         <v>66</v>
-      </c>
-      <c r="I3">
-        <v>63</v>
       </c>
       <c r="J3">
         <v>76</v>
       </c>
       <c r="K3">
-        <v>54</v>
+        <v>55.2</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -619,28 +619,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>383000</v>
+        <v>45500</v>
       </c>
       <c r="E4">
-        <v>36.1</v>
+        <v>19.9</v>
       </c>
       <c r="F4">
-        <v>-4.73</v>
+        <v>-4.01</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J4">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>51.2</v>
+        <v>55.2</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -666,28 +666,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>852000</v>
+        <v>365500</v>
       </c>
       <c r="E5">
-        <v>26.4</v>
+        <v>33.8</v>
       </c>
       <c r="F5">
-        <v>-1.96</v>
+        <v>-7.23</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
+        <v>53</v>
+      </c>
+      <c r="I5">
         <v>60</v>
-      </c>
-      <c r="I5">
-        <v>53</v>
       </c>
       <c r="J5">
         <v>56</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>52.8</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -713,28 +713,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>46200</v>
+        <v>812000</v>
       </c>
       <c r="E6">
-        <v>20.8</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>-4.94</v>
+        <v>-5.03</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I6">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>52.8</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>날짜</t>
   </si>
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-01</t>
+    <t>2025-12-03</t>
   </si>
   <si>
     <t>KOREA AEROSPACE</t>
@@ -97,13 +97,10 @@
     <t>Pattern</t>
   </si>
   <si>
-    <t>📈 매수 관찰 구간입니다.</t>
-  </si>
-  <si>
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 완화적 (상승 우위)</t>
+    <t>🟢 상승 우위 (다소 완화)</t>
   </si>
 </sst>
 </file>
@@ -525,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>108300</v>
+        <v>105400</v>
       </c>
       <c r="E2">
-        <v>60.8</v>
+        <v>52.6</v>
       </c>
       <c r="F2">
-        <v>4.23</v>
+        <v>-2.95</v>
       </c>
       <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
         <v>60</v>
-      </c>
-      <c r="H2">
-        <v>56</v>
       </c>
       <c r="I2">
         <v>60</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K2">
-        <v>67.8</v>
+        <v>55.6</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -555,10 +552,10 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -572,40 +569,40 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>169900</v>
+        <v>169500</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="F3">
-        <v>-2.91</v>
+        <v>-4.35</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J3">
         <v>76</v>
       </c>
       <c r="K3">
-        <v>55.2</v>
+        <v>50.6</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O3" t="s">
         <v>28</v>
-      </c>
-      <c r="N3">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -619,13 +616,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>45500</v>
+        <v>45550</v>
       </c>
       <c r="E4">
-        <v>19.9</v>
+        <v>14.9</v>
       </c>
       <c r="F4">
-        <v>-4.01</v>
+        <v>-1.41</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -634,25 +631,25 @@
         <v>50</v>
       </c>
       <c r="I4">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J4">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>55.2</v>
+        <v>50.6</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
       <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
-      </c>
-      <c r="N4">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -666,40 +663,40 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>365500</v>
+        <v>364500</v>
       </c>
       <c r="E5">
-        <v>33.8</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>-7.23</v>
+        <v>-5.2</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J5">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>52.8</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
       </c>
       <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O5" t="s">
         <v>28</v>
-      </c>
-      <c r="N5">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -713,40 +710,40 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>812000</v>
+        <v>824000</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="F6">
-        <v>-5.03</v>
+        <v>-4.07</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I6">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J6">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>52.8</v>
+        <v>47.8</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
       </c>
       <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O6" t="s">
         <v>28</v>
-      </c>
-      <c r="N6">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -543,7 +543,7 @@
         <v>53</v>
       </c>
       <c r="K2">
-        <v>55.6</v>
+        <v>55.8</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>50</v>
       </c>
       <c r="K4">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>63</v>
       </c>
       <c r="K5">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>66</v>
       </c>
       <c r="K6">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -70,28 +70,28 @@
     <t>HYUNDAI ROTEM</t>
   </si>
   <si>
+    <t>HANWHA AEROSPACE</t>
+  </si>
+  <si>
     <t>HANWHA SYSTEMS</t>
   </si>
   <si>
     <t>LIG Nex1</t>
   </si>
   <si>
-    <t>HANWHA AEROSPACE</t>
-  </si>
-  <si>
     <t>047810.KS</t>
   </si>
   <si>
     <t>064350.KS</t>
   </si>
   <si>
+    <t>012450.KS</t>
+  </si>
+  <si>
     <t>272210.KS</t>
   </si>
   <si>
     <t>079550.KS</t>
-  </si>
-  <si>
-    <t>012450.KS</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -522,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>105400</v>
+        <v>105800</v>
       </c>
       <c r="E2">
-        <v>52.6</v>
+        <v>54.2</v>
       </c>
       <c r="F2">
-        <v>-2.95</v>
+        <v>-4.08</v>
       </c>
       <c r="G2">
         <v>40</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="K2">
-        <v>55.8</v>
+        <v>51.8</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>169500</v>
+        <v>171100</v>
       </c>
       <c r="E3">
-        <v>20.1</v>
+        <v>23.1</v>
       </c>
       <c r="F3">
-        <v>-4.35</v>
+        <v>-4.63</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -584,13 +584,13 @@
         <v>60</v>
       </c>
       <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="J3">
         <v>70</v>
       </c>
-      <c r="J3">
-        <v>76</v>
-      </c>
       <c r="K3">
-        <v>50.8</v>
+        <v>49.2</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>45550</v>
+        <v>846000</v>
       </c>
       <c r="E4">
-        <v>14.9</v>
+        <v>30.2</v>
       </c>
       <c r="F4">
-        <v>-1.41</v>
+        <v>-2.87</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>50.8</v>
+        <v>46.8</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,28 +663,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>364500</v>
+        <v>46250</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>16.3</v>
       </c>
       <c r="F5">
-        <v>-5.2</v>
+        <v>-0.86</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I5">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>49.2</v>
+        <v>46.8</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,28 +710,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>824000</v>
+        <v>370000</v>
       </c>
       <c r="E6">
-        <v>23.8</v>
+        <v>35.2</v>
       </c>
       <c r="F6">
-        <v>-4.07</v>
+        <v>-5.61</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6">
         <v>53</v>
       </c>
-      <c r="I6">
-        <v>63</v>
-      </c>
       <c r="J6">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-03</t>
+    <t>2025-12-05</t>
   </si>
   <si>
     <t>KOREA AEROSPACE</t>
@@ -100,7 +100,7 @@
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 상승 우위 (다소 완화)</t>
+    <t>⚪ 중립 구간</t>
   </si>
 </sst>
 </file>
@@ -522,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>105800</v>
+        <v>105500</v>
       </c>
       <c r="E2">
-        <v>54.2</v>
+        <v>53.5</v>
       </c>
       <c r="F2">
-        <v>-4.08</v>
+        <v>-3.12</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K2">
-        <v>51.8</v>
+        <v>48.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>171100</v>
+        <v>176200</v>
       </c>
       <c r="E3">
-        <v>23.1</v>
+        <v>29.2</v>
       </c>
       <c r="F3">
-        <v>-4.63</v>
+        <v>-1.67</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -584,13 +584,13 @@
         <v>60</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K3">
-        <v>49.2</v>
+        <v>47.9</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>846000</v>
+        <v>855000</v>
       </c>
       <c r="E4">
-        <v>30.2</v>
+        <v>33.8</v>
       </c>
       <c r="F4">
-        <v>-2.87</v>
+        <v>-0.93</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J4">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>46.8</v>
+        <v>46.7</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,28 +663,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>46250</v>
+        <v>46150</v>
       </c>
       <c r="E5">
-        <v>16.3</v>
+        <v>20.9</v>
       </c>
       <c r="F5">
-        <v>-0.86</v>
+        <v>-0.43</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J5">
         <v>40</v>
       </c>
       <c r="K5">
-        <v>46.8</v>
+        <v>41.1</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,28 +710,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>370000</v>
+        <v>368000</v>
       </c>
       <c r="E6">
-        <v>35.2</v>
+        <v>35.8</v>
       </c>
       <c r="F6">
-        <v>-5.61</v>
+        <v>-5.52</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I6">
         <v>53</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>44</v>
+        <v>39.9</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -543,7 +543,7 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>48.7</v>
+        <v>49.1</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>47.9</v>
+        <v>48.3</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>73</v>
       </c>
       <c r="K4">
-        <v>46.7</v>
+        <v>47.1</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>40</v>
       </c>
       <c r="K5">
-        <v>41.1</v>
+        <v>41.5</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>53</v>
       </c>
       <c r="K6">
-        <v>39.9</v>
+        <v>40.3</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -543,7 +543,7 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>73</v>
       </c>
       <c r="K4">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>40</v>
       </c>
       <c r="K5">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>53</v>
       </c>
       <c r="K6">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -64,31 +64,31 @@
     <t>2025-12-05</t>
   </si>
   <si>
+    <t>HYUNDAI ROTEM</t>
+  </si>
+  <si>
+    <t>HANWHA AEROSPACE</t>
+  </si>
+  <si>
+    <t>HANWHA SYSTEMS</t>
+  </si>
+  <si>
     <t>KOREA AEROSPACE</t>
   </si>
   <si>
-    <t>HYUNDAI ROTEM</t>
-  </si>
-  <si>
-    <t>HANWHA AEROSPACE</t>
-  </si>
-  <si>
-    <t>HANWHA SYSTEMS</t>
-  </si>
-  <si>
     <t>LIG Nex1</t>
   </si>
   <si>
+    <t>064350.KS</t>
+  </si>
+  <si>
+    <t>012450.KS</t>
+  </si>
+  <si>
+    <t>272210.KS</t>
+  </si>
+  <si>
     <t>047810.KS</t>
-  </si>
-  <si>
-    <t>064350.KS</t>
-  </si>
-  <si>
-    <t>012450.KS</t>
-  </si>
-  <si>
-    <t>272210.KS</t>
   </si>
   <si>
     <t>079550.KS</t>
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>105500</v>
+        <v>180200</v>
       </c>
       <c r="E2">
-        <v>53.5</v>
+        <v>34.4</v>
       </c>
       <c r="F2">
-        <v>-3.12</v>
+        <v>2.56</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="I2">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J2">
         <v>60</v>
       </c>
       <c r="K2">
-        <v>49.2</v>
+        <v>51.9</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,28 +569,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>176200</v>
+        <v>864000</v>
       </c>
       <c r="E3">
-        <v>29.2</v>
+        <v>30.4</v>
       </c>
       <c r="F3">
-        <v>-1.67</v>
+        <v>1.41</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>73</v>
       </c>
       <c r="J3">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K3">
-        <v>48.4</v>
+        <v>51.7</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>855000</v>
+        <v>46600</v>
       </c>
       <c r="E4">
-        <v>33.8</v>
+        <v>21.9</v>
       </c>
       <c r="F4">
-        <v>-0.93</v>
+        <v>0.87</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>60</v>
       </c>
       <c r="I4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,28 +663,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>46150</v>
+        <v>104700</v>
       </c>
       <c r="E5">
-        <v>20.9</v>
+        <v>37.8</v>
       </c>
       <c r="F5">
-        <v>-0.43</v>
+        <v>-3.86</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>41.6</v>
+        <v>43.5</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,28 +710,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>368000</v>
+        <v>367000</v>
       </c>
       <c r="E6">
-        <v>35.8</v>
+        <v>26.8</v>
       </c>
       <c r="F6">
-        <v>-5.52</v>
+        <v>-4.18</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I6">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J6">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>40.4</v>
+        <v>37.9</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>180200</v>
+        <v>181100</v>
       </c>
       <c r="E2">
-        <v>34.4</v>
+        <v>35.5</v>
       </c>
       <c r="F2">
-        <v>2.56</v>
+        <v>3.07</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,19 +569,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>864000</v>
+        <v>872500</v>
       </c>
       <c r="E3">
-        <v>30.4</v>
+        <v>32.3</v>
       </c>
       <c r="F3">
-        <v>1.41</v>
+        <v>2.41</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I3">
         <v>73</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,13 +616,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>46600</v>
+        <v>46650</v>
       </c>
       <c r="E4">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="F4">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>367000</v>
+        <v>366500</v>
       </c>
       <c r="E6">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F6">
-        <v>-4.18</v>
+        <v>-4.31</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -64,12 +64,12 @@
     <t>2025-12-05</t>
   </si>
   <si>
+    <t>HANWHA AEROSPACE</t>
+  </si>
+  <si>
     <t>HYUNDAI ROTEM</t>
   </si>
   <si>
-    <t>HANWHA AEROSPACE</t>
-  </si>
-  <si>
     <t>HANWHA SYSTEMS</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>LIG Nex1</t>
   </si>
   <si>
+    <t>012450.KS</t>
+  </si>
+  <si>
     <t>064350.KS</t>
-  </si>
-  <si>
-    <t>012450.KS</t>
   </si>
   <si>
     <t>272210.KS</t>
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>181100</v>
+        <v>875000</v>
       </c>
       <c r="E2">
-        <v>35.5</v>
+        <v>32.9</v>
       </c>
       <c r="F2">
-        <v>3.07</v>
+        <v>2.7</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="I2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K2">
-        <v>51.9</v>
+        <v>54.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,28 +569,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>872500</v>
+        <v>179700</v>
       </c>
       <c r="E3">
-        <v>32.3</v>
+        <v>33.8</v>
       </c>
       <c r="F3">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>60</v>
       </c>
       <c r="I3">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K3">
-        <v>51.7</v>
+        <v>51.9</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,13 +616,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>46650</v>
+        <v>46800</v>
       </c>
       <c r="E4">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="F4">
-        <v>0.97</v>
+        <v>1.3</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,13 +663,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>104700</v>
+        <v>104900</v>
       </c>
       <c r="E5">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="F5">
-        <v>-3.86</v>
+        <v>-3.67</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>366500</v>
+        <v>366000</v>
       </c>
       <c r="E6">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F6">
-        <v>-4.31</v>
+        <v>-4.44</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -522,19 +522,19 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>875000</v>
+        <v>881000</v>
       </c>
       <c r="E2">
-        <v>32.9</v>
+        <v>34.2</v>
       </c>
       <c r="F2">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="G2">
         <v>30</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <v>73</v>
@@ -543,7 +543,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>179700</v>
+        <v>180700</v>
       </c>
       <c r="E3">
-        <v>33.8</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>2.28</v>
+        <v>2.85</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -590,7 +590,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>46.5</v>
+        <v>46.4</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,28 +663,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>104900</v>
+        <v>105100</v>
       </c>
       <c r="E5">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="F5">
-        <v>-3.67</v>
+        <v>-3.49</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J5">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>43.5</v>
+        <v>44.6</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>366000</v>
+        <v>368000</v>
       </c>
       <c r="E6">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>-4.44</v>
+        <v>-3.92</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>881000</v>
+        <v>882000</v>
       </c>
       <c r="E2">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="F2">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -543,7 +543,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>180700</v>
+        <v>181400</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>35.8</v>
       </c>
       <c r="F3">
-        <v>2.85</v>
+        <v>3.24</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -584,13 +584,13 @@
         <v>60</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K3">
-        <v>51.8</v>
+        <v>50.7</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,13 +616,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>46800</v>
+        <v>46950</v>
       </c>
       <c r="E4">
-        <v>23.2</v>
+        <v>24.1</v>
       </c>
       <c r="F4">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -637,7 +637,7 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,13 +663,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>105100</v>
+        <v>105400</v>
       </c>
       <c r="E5">
-        <v>38.4</v>
+        <v>38.8</v>
       </c>
       <c r="F5">
-        <v>-3.49</v>
+        <v>-3.21</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -684,7 +684,7 @@
         <v>66</v>
       </c>
       <c r="K5">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>368000</v>
+        <v>370000</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>28.2</v>
       </c>
       <c r="F6">
-        <v>-3.92</v>
+        <v>-3.39</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -70,12 +70,12 @@
     <t>HYUNDAI ROTEM</t>
   </si>
   <si>
+    <t>KOREA AEROSPACE</t>
+  </si>
+  <si>
     <t>HANWHA SYSTEMS</t>
   </si>
   <si>
-    <t>KOREA AEROSPACE</t>
-  </si>
-  <si>
     <t>LIG Nex1</t>
   </si>
   <si>
@@ -85,10 +85,10 @@
     <t>064350.KS</t>
   </si>
   <si>
+    <t>047810.KS</t>
+  </si>
+  <si>
     <t>272210.KS</t>
-  </si>
-  <si>
-    <t>047810.KS</t>
   </si>
   <si>
     <t>079550.KS</t>
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>882000</v>
+        <v>895000</v>
       </c>
       <c r="E2">
-        <v>34.4</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>3.52</v>
+        <v>5.05</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -537,13 +537,13 @@
         <v>56</v>
       </c>
       <c r="I2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K2">
-        <v>54.7</v>
+        <v>55.8</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>181400</v>
+        <v>182000</v>
       </c>
       <c r="E3">
-        <v>35.8</v>
+        <v>36.5</v>
       </c>
       <c r="F3">
-        <v>3.24</v>
+        <v>3.59</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -584,13 +584,13 @@
         <v>60</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J3">
         <v>63</v>
       </c>
       <c r="K3">
-        <v>50.7</v>
+        <v>51.8</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>46950</v>
+        <v>106200</v>
       </c>
       <c r="E4">
-        <v>24.1</v>
+        <v>40.6</v>
       </c>
       <c r="F4">
-        <v>1.62</v>
+        <v>-2.48</v>
       </c>
       <c r="G4">
         <v>20</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K4">
-        <v>46.5</v>
+        <v>47.6</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,28 +663,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>105400</v>
+        <v>47200</v>
       </c>
       <c r="E5">
-        <v>38.8</v>
+        <v>25.6</v>
       </c>
       <c r="F5">
-        <v>-3.21</v>
+        <v>2.16</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5">
+        <v>53</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
         <v>43</v>
       </c>
-      <c r="I5">
-        <v>63</v>
-      </c>
-      <c r="J5">
-        <v>66</v>
-      </c>
       <c r="K5">
-        <v>44.7</v>
+        <v>46.4</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>370000</v>
+        <v>372500</v>
       </c>
       <c r="E6">
-        <v>28.2</v>
+        <v>29.6</v>
       </c>
       <c r="F6">
-        <v>-3.39</v>
+        <v>-2.74</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -543,7 +543,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>63</v>
       </c>
       <c r="K3">
-        <v>51.8</v>
+        <v>50.9</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>66</v>
       </c>
       <c r="K4">
-        <v>47.6</v>
+        <v>46.7</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>46.4</v>
+        <v>45.5</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>37.8</v>
+        <v>36.9</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -543,7 +543,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>63</v>
       </c>
       <c r="K3">
-        <v>50.9</v>
+        <v>50.7</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>66</v>
       </c>
       <c r="K4">
-        <v>46.7</v>
+        <v>46.5</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-05</t>
+    <t>2025-12-06</t>
   </si>
   <si>
     <t>HANWHA AEROSPACE</t>
@@ -543,7 +543,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>63</v>
       </c>
       <c r="K3">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>66</v>
       </c>
       <c r="K4">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -543,7 +543,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>54.9</v>
+        <v>54.6</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>63</v>
       </c>
       <c r="K3">
-        <v>50.9</v>
+        <v>50.6</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>66</v>
       </c>
       <c r="K4">
-        <v>46.7</v>
+        <v>46.4</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>45.5</v>
+        <v>45.2</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -543,7 +543,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>54.6</v>
+        <v>54.1</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>63</v>
       </c>
       <c r="K3">
-        <v>50.6</v>
+        <v>50.1</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>66</v>
       </c>
       <c r="K4">
-        <v>46.4</v>
+        <v>45.9</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>45.2</v>
+        <v>44.7</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/국장_방산_분석.xlsx
+++ b/DECISION/국장_방산_분석.xlsx
@@ -543,7 +543,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>54.1</v>
+        <v>55.1</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>63</v>
       </c>
       <c r="K3">
-        <v>50.1</v>
+        <v>51.1</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>66</v>
       </c>
       <c r="K4">
-        <v>45.9</v>
+        <v>46.9</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>44.7</v>
+        <v>45.7</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>36.1</v>
+        <v>37.1</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>
